--- a/data/trans_bre/P16A02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 13,53</t>
+          <t>2,66; 13,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 18,83</t>
+          <t>6,46; 19,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 9,6</t>
+          <t>-1,78; 10,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 18,24</t>
+          <t>7,81; 18,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 139,01</t>
+          <t>18,08; 129,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,42; 180,6</t>
+          <t>38,65; 183,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 57,49</t>
+          <t>-7,9; 60,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,83; 116,47</t>
+          <t>36,85; 117,55</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 12,94</t>
+          <t>1,08; 13,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 21,11</t>
+          <t>7,63; 22,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 14,09</t>
+          <t>2,08; 14,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 16,69</t>
+          <t>5,4; 16,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 101,07</t>
+          <t>5,44; 103,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,09; 138,34</t>
+          <t>34,57; 140,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 93,98</t>
+          <t>9,66; 98,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,67; 92,83</t>
+          <t>22,5; 91,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 18,46</t>
+          <t>3,98; 17,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 14,34</t>
+          <t>0,15; 13,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,15; 24,64</t>
+          <t>7,58; 24,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 44,85</t>
+          <t>17,25; 45,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,38; 161,83</t>
+          <t>23,97; 151,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 78,02</t>
+          <t>0,91; 69,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,68; 135,18</t>
+          <t>34,73; 139,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,03; 713,06</t>
+          <t>58,69; 653,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 9,31</t>
+          <t>2,17; 9,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 14,26</t>
+          <t>5,17; 13,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 12,8</t>
+          <t>4,95; 13,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 45,55</t>
+          <t>8,85; 45,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 62,66</t>
+          <t>12,65; 58,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,18; 78,06</t>
+          <t>23,33; 73,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,13; 70,96</t>
+          <t>22,58; 71,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 166,51</t>
+          <t>29,87; 167,2</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 18,14</t>
+          <t>7,78; 18,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,17; 24,94</t>
+          <t>15,34; 25,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,27; 21,88</t>
+          <t>12,93; 22,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 23,81</t>
+          <t>3,22; 23,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>43,43; 159,92</t>
+          <t>45,5; 161,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,27; 162,04</t>
+          <t>73,78; 166,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,4; 133,97</t>
+          <t>61,12; 134,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,81; 95,22</t>
+          <t>13,9; 91,81</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 22,48</t>
+          <t>15,18; 22,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,63; 33,39</t>
+          <t>24,61; 32,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 24,38</t>
+          <t>13,89; 24,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,24; 32,55</t>
+          <t>14,04; 32,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>171,94; 582,59</t>
+          <t>174,85; 582,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>230,83; 688,23</t>
+          <t>228,06; 675,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,25; 260,96</t>
+          <t>82,12; 246,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>78,75; 434,1</t>
+          <t>58,99; 419,89</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,81</t>
+          <t>8,15; 11,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 17,79</t>
+          <t>13,63; 17,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,26</t>
+          <t>10,12; 14,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 29,83</t>
+          <t>14,62; 31,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,98; 90,24</t>
+          <t>56,07; 90,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,11; 105,91</t>
+          <t>71,76; 106,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,03; 80,85</t>
+          <t>50,47; 79,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,57; 148,06</t>
+          <t>59,09; 166,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
